--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value203.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value203.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.969725956150099</v>
+        <v>1.476000308990479</v>
       </c>
       <c r="B1">
-        <v>1.459280362984927</v>
+        <v>3.638644218444824</v>
       </c>
       <c r="C1">
-        <v>2.204066364459864</v>
+        <v>6.069168090820312</v>
       </c>
       <c r="D1">
-        <v>2.47201794174125</v>
+        <v>1.485948204994202</v>
       </c>
       <c r="E1">
-        <v>1.53880107725051</v>
+        <v>0.8701711297035217</v>
       </c>
     </row>
   </sheetData>
